--- a/Algorithm_tester/data_autosave/synth_noise_additional_tests.xlsx
+++ b/Algorithm_tester/data_autosave/synth_noise_additional_tests.xlsx
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>576.5585899353027</v>
+        <v>256.3185691833496</v>
       </c>
       <c r="I2" t="n">
         <v>-80.59521829799431</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>596.4021801948547</v>
+        <v>263.2627964019775</v>
       </c>
       <c r="I3" t="n">
         <v>-39.01225647752146</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>611.2013459205627</v>
+        <v>271.2051868438721</v>
       </c>
       <c r="I4" t="n">
         <v>-24.85658581154554</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>646.7729806900024</v>
+        <v>295.2042818069458</v>
       </c>
       <c r="I5" t="n">
         <v>-18.33338096086524</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>712.1386528015137</v>
+        <v>334.1076970100403</v>
       </c>
       <c r="I6" t="n">
         <v>-13.23744832618838</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>795.9887742996215</v>
+        <v>371.1490869522094</v>
       </c>
       <c r="I7" t="n">
         <v>-9.036638998277976</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1067.404985427856</v>
+        <v>750.2181529998779</v>
       </c>
       <c r="I8" t="n">
         <v>-2.13557309428383</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>569.2377090454102</v>
+        <v>259.3414783477783</v>
       </c>
       <c r="I9" t="n">
         <v>-89.19804935424524</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>595.8419322967529</v>
+        <v>266.2865877151489</v>
       </c>
       <c r="I10" t="n">
         <v>-43.04278882633804</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>611.1474633216858</v>
+        <v>273.3028531074524</v>
       </c>
       <c r="I11" t="n">
         <v>-27.47786075050034</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>631.638765335083</v>
+        <v>284.2583656311035</v>
       </c>
       <c r="I12" t="n">
         <v>-20.73271222573086</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>666.8629050254822</v>
+        <v>301.1959195137024</v>
       </c>
       <c r="I13" t="n">
         <v>-15.97430308573494</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>764.2024159431451</v>
+        <v>330.6611537933349</v>
       </c>
       <c r="I14" t="n">
         <v>-11.47032071694581</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1424.914598464966</v>
+        <v>473.8085269927979</v>
       </c>
       <c r="I15" t="n">
         <v>-7.98861066284645</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>579.3359279632568</v>
+        <v>255.6037902832031</v>
       </c>
       <c r="I16" t="n">
         <v>-65.05476353360359</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>594.457733631134</v>
+        <v>265.3283715248108</v>
       </c>
       <c r="I17" t="n">
         <v>-37.97397184839551</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>615.1986718177795</v>
+        <v>272.8578448295593</v>
       </c>
       <c r="I18" t="n">
         <v>-25.2926654985048</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>643.3030366897583</v>
+        <v>283.112645149231</v>
       </c>
       <c r="I19" t="n">
         <v>-19.52478176504972</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>688.8003349304199</v>
+        <v>300.2714514732361</v>
       </c>
       <c r="I20" t="n">
         <v>-14.97497113628763</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>772.9879856109618</v>
+        <v>332.142961025238</v>
       </c>
       <c r="I21" t="n">
         <v>-10.98981215791238</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1693.409204483032</v>
+        <v>429.6832084655762</v>
       </c>
       <c r="I22" t="n">
         <v>-7.167956638966913</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>578.0870914459229</v>
+        <v>259.5200538635254</v>
       </c>
       <c r="I23" t="n">
         <v>-36.17507147065015</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>596.3728189468384</v>
+        <v>266.7208313941956</v>
       </c>
       <c r="I24" t="n">
         <v>-21.99341436444331</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>614.0570640563965</v>
+        <v>280.7296514511108</v>
       </c>
       <c r="I25" t="n">
         <v>-10.7100600997954</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>691.9951438903809</v>
+        <v>326.4869451522827</v>
       </c>
       <c r="I26" t="n">
         <v>-8.575140444880596</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>764.1285061836243</v>
+        <v>358.8242530822754</v>
       </c>
       <c r="I27" t="n">
         <v>-6.746309302885326</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>884.4353914260864</v>
+        <v>527.1722078323363</v>
       </c>
       <c r="I28" t="n">
         <v>-4.69815993726561</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1721.882104873657</v>
+        <v>1034.914493560791</v>
       </c>
       <c r="I29" t="n">
         <v>-2.727180357512142</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>212.4321460723877</v>
+        <v>93.74904632568359</v>
       </c>
       <c r="I30" t="n">
         <v>-80.59521829799431</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>226.1299967765808</v>
+        <v>99.73381757736206</v>
       </c>
       <c r="I31" t="n">
         <v>-39.01225647752146</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>247.7670311927795</v>
+        <v>108.8986992835999</v>
       </c>
       <c r="I32" t="n">
         <v>-24.85658581154554</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>285.1005792617798</v>
+        <v>130.650520324707</v>
       </c>
       <c r="I33" t="n">
         <v>-18.33338096086524</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>298.5557317733765</v>
+        <v>136.3106966018677</v>
       </c>
       <c r="I34" t="n">
         <v>-13.23744832618838</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>332.1801543235778</v>
+        <v>157.5790286064148</v>
       </c>
       <c r="I35" t="n">
         <v>-9.036638998277976</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>496.5815544128418</v>
+        <v>276.151180267334</v>
       </c>
       <c r="I36" t="n">
         <v>-2.13557309428383</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>225.0962257385254</v>
+        <v>100.7277965545654</v>
       </c>
       <c r="I37" t="n">
         <v>-89.19804935424524</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>242.3322916030884</v>
+        <v>107.7134132385254</v>
       </c>
       <c r="I38" t="n">
         <v>-43.04278882633804</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>255.3179264068604</v>
+        <v>114.690899848938</v>
       </c>
       <c r="I39" t="n">
         <v>-27.47786075050034</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>267.2883272171021</v>
+        <v>119.6721792221069</v>
       </c>
       <c r="I40" t="n">
         <v>-20.73271222573086</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>284.132182598114</v>
+        <v>127.6601552963257</v>
       </c>
       <c r="I41" t="n">
         <v>-15.97430308573494</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>336.1029982566832</v>
+        <v>149.7030377388</v>
       </c>
       <c r="I42" t="n">
         <v>-11.47032071694581</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>691.2522315979004</v>
+        <v>293.891429901123</v>
       </c>
       <c r="I43" t="n">
         <v>-7.98861066284645</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>223.2387065887451</v>
+        <v>96.77577018737793</v>
       </c>
       <c r="I44" t="n">
         <v>-65.05476353360359</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>234.407365322113</v>
+        <v>103.7223219871521</v>
       </c>
       <c r="I45" t="n">
         <v>-37.97397184839551</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>252.2135376930237</v>
+        <v>109.7118854522705</v>
       </c>
       <c r="I46" t="n">
         <v>-25.2926654985048</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>268.2682275772095</v>
+        <v>115.7104969024658</v>
       </c>
       <c r="I47" t="n">
         <v>-19.52478176504972</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>287.0186567306519</v>
+        <v>124.6643662452698</v>
       </c>
       <c r="I48" t="n">
         <v>-14.97497113628763</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>325.8018612861633</v>
+        <v>141.5998578071594</v>
       </c>
       <c r="I49" t="n">
         <v>-10.98981215791238</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>725.6600856781006</v>
+        <v>184.4666004180908</v>
       </c>
       <c r="I50" t="n">
         <v>-7.167956638966913</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>284.565281867981</v>
+        <v>130.6523680686951</v>
       </c>
       <c r="I52" t="n">
         <v>-21.99341436444331</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>295.1814532279968</v>
+        <v>134.777843952179</v>
       </c>
       <c r="I53" t="n">
         <v>-10.7100600997954</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>304.2420148849487</v>
+        <v>139.6288871765137</v>
       </c>
       <c r="I54" t="n">
         <v>-8.575140444880596</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>326.1094093322754</v>
+        <v>153.5884141921997</v>
       </c>
       <c r="I55" t="n">
         <v>-6.746309302885326</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>369.3171024322509</v>
+        <v>215.4857754707336</v>
       </c>
       <c r="I56" t="n">
         <v>-4.69815993726561</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>962.0876312255859</v>
+        <v>377.6106834411621</v>
       </c>
       <c r="I57" t="n">
         <v>-2.727180357512142</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>9.896516799926758</v>
+        <v>9.792327880859375</v>
       </c>
       <c r="I58" t="n">
         <v>-80.59521829799431</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>11.2341046333313</v>
+        <v>11.56965494155884</v>
       </c>
       <c r="I59" t="n">
         <v>-39.01225647752146</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>12.85761594772339</v>
+        <v>13.23527097702026</v>
       </c>
       <c r="I60" t="n">
         <v>-24.85658581154554</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>14.87076282501221</v>
+        <v>15.19811153411865</v>
       </c>
       <c r="I61" t="n">
         <v>-18.33338096086524</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>17.86893606185913</v>
+        <v>19.2413330078125</v>
       </c>
       <c r="I62" t="n">
         <v>-13.23744832618838</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>24.89879131317138</v>
+        <v>50.01034736633298</v>
       </c>
       <c r="I63" t="n">
         <v>-9.036638998277976</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>112.6575469970703</v>
+        <v>129.652738571167</v>
       </c>
       <c r="I64" t="n">
         <v>-2.13557309428383</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>9.901523590087891</v>
+        <v>9.688377380371094</v>
       </c>
       <c r="I65" t="n">
         <v>-89.19804935424524</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>10.97296476364136</v>
+        <v>11.79478168487549</v>
       </c>
       <c r="I66" t="n">
         <v>-43.04278882633804</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>12.43728399276733</v>
+        <v>13.2555365562439</v>
       </c>
       <c r="I67" t="n">
         <v>-27.47786075050034</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>14.42360877990723</v>
+        <v>15.10059833526611</v>
       </c>
       <c r="I68" t="n">
         <v>-20.73271222573086</v>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>17.23319292068481</v>
+        <v>17.63182878494263</v>
       </c>
       <c r="I69" t="n">
         <v>-15.97430308573494</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>26.92583799362178</v>
+        <v>31.74573183059691</v>
       </c>
       <c r="I70" t="n">
         <v>-11.47032071694581</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>119.6813583374023</v>
+        <v>111.2360954284668</v>
       </c>
       <c r="I71" t="n">
         <v>-7.98861066284645</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>10.05268096923828</v>
+        <v>8.299827575683594</v>
       </c>
       <c r="I72" t="n">
         <v>-65.05476353360359</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>11.25155687332153</v>
+        <v>11.07019186019897</v>
       </c>
       <c r="I73" t="n">
         <v>-37.97397184839551</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>13.09651136398315</v>
+        <v>13.09776306152344</v>
       </c>
       <c r="I74" t="n">
         <v>-25.2926654985048</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>15.05553722381592</v>
+        <v>14.78099822998047</v>
       </c>
       <c r="I75" t="n">
         <v>-19.52478176504972</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>18.62430572509766</v>
+        <v>17.90058612823486</v>
       </c>
       <c r="I76" t="n">
         <v>-14.97497113628763</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>35.96751689910883</v>
+        <v>28.30125093460082</v>
       </c>
       <c r="I77" t="n">
         <v>-10.98981215791238</v>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>96.87232971191406</v>
+        <v>92.33283996582031</v>
       </c>
       <c r="I78" t="n">
         <v>-7.167956638966913</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>9.495973587036133</v>
+        <v>9.248733520507812</v>
       </c>
       <c r="I79" t="n">
         <v>-36.17507147065015</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>10.40620803833008</v>
+        <v>10.95082759857178</v>
       </c>
       <c r="I80" t="n">
         <v>-21.99341436444331</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>12.02255487442017</v>
+        <v>12.94112205505371</v>
       </c>
       <c r="I81" t="n">
         <v>-10.7100600997954</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>14.28127288818359</v>
+        <v>15.70498943328857</v>
       </c>
       <c r="I82" t="n">
         <v>-8.575140444880596</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>17.43972301483154</v>
+        <v>24.78605508804321</v>
       </c>
       <c r="I83" t="n">
         <v>-6.746309302885326</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>44.93155479431148</v>
+        <v>88.84332180023172</v>
       </c>
       <c r="I84" t="n">
         <v>-4.69815993726561</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>121.675968170166</v>
+        <v>212.7366065979004</v>
       </c>
       <c r="I85" t="n">
         <v>-2.727180357512142</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>495.5828189849854</v>
+        <v>167.5479412078857</v>
       </c>
       <c r="I86" t="n">
         <v>-80.59521829799431</v>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>505.1381826400757</v>
+        <v>172.2889542579651</v>
       </c>
       <c r="I87" t="n">
         <v>-39.01225647752146</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>513.8394236564636</v>
+        <v>176.0962009429932</v>
       </c>
       <c r="I88" t="n">
         <v>-24.85658581154554</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>523.2352018356323</v>
+        <v>180.1838874816895</v>
       </c>
       <c r="I89" t="n">
         <v>-18.33338096086524</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>549.8805642127991</v>
+        <v>187.0419979095459</v>
       </c>
       <c r="I90" t="n">
         <v>-13.23744832618838</v>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>591.6739344596863</v>
+        <v>220.4754590988159</v>
       </c>
       <c r="I91" t="n">
         <v>-9.036638998277976</v>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1198.588609695435</v>
+        <v>363.9669418334961</v>
       </c>
       <c r="I92" t="n">
         <v>-2.13557309428383</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>487.1196746826172</v>
+        <v>165.5406951904297</v>
       </c>
       <c r="I93" t="n">
         <v>-89.19804935424524</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>504.4421315193176</v>
+        <v>169.5465803146362</v>
       </c>
       <c r="I94" t="n">
         <v>-43.04278882633804</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>516.0897970199585</v>
+        <v>173.5715270042419</v>
       </c>
       <c r="I95" t="n">
         <v>-27.47786075050034</v>
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>527.0285606384277</v>
+        <v>177.5480508804321</v>
       </c>
       <c r="I96" t="n">
         <v>-20.73271222573086</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>555.8437705039978</v>
+        <v>184.8288774490356</v>
       </c>
       <c r="I97" t="n">
         <v>-15.97430308573494</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>621.6650485992429</v>
+        <v>215.5267834663391</v>
       </c>
       <c r="I98" t="n">
         <v>-11.47032071694581</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1228.208065032959</v>
+        <v>311.8937015533447</v>
       </c>
       <c r="I99" t="n">
         <v>-7.98861066284645</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>489.3107414245605</v>
+        <v>167.560338973999</v>
       </c>
       <c r="I100" t="n">
         <v>-65.05476353360359</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>528.5839438438416</v>
+        <v>174.5366454124451</v>
       </c>
       <c r="I101" t="n">
         <v>-37.97397184839551</v>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>549.9010682106018</v>
+        <v>180.5155277252197</v>
       </c>
       <c r="I102" t="n">
         <v>-25.2926654985048</v>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>568.4506893157959</v>
+        <v>185.5080127716064</v>
       </c>
       <c r="I103" t="n">
         <v>-19.52478176504972</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>602.048397064209</v>
+        <v>192.579984664917</v>
       </c>
       <c r="I104" t="n">
         <v>-14.97497113628763</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>659.2930436134335</v>
+        <v>214.4695401191711</v>
       </c>
       <c r="I105" t="n">
         <v>-10.98981215791238</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>1847.34845161438</v>
+        <v>331.4731121063232</v>
       </c>
       <c r="I106" t="n">
         <v>-7.167956638966913</v>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>491.1041259765625</v>
+        <v>165.5683517456055</v>
       </c>
       <c r="I107" t="n">
         <v>-36.17507147065015</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>503.6347508430481</v>
+        <v>169.5465683937073</v>
       </c>
       <c r="I108" t="n">
         <v>-21.99341436444331</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>514.6584510803223</v>
+        <v>175.2271056175232</v>
       </c>
       <c r="I109" t="n">
         <v>-10.7100600997954</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>529.8920869827271</v>
+        <v>181.8820238113403</v>
       </c>
       <c r="I110" t="n">
         <v>-8.575140444880596</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>561.0039830207825</v>
+        <v>200.8119821548462</v>
       </c>
       <c r="I111" t="n">
         <v>-6.746309302885326</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>618.8092231750486</v>
+        <v>306.0763359069824</v>
       </c>
       <c r="I112" t="n">
         <v>-4.69815993726561</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>1033.027648925781</v>
+        <v>522.9711532592773</v>
       </c>
       <c r="I113" t="n">
         <v>-2.727180357512142</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>30.88045120239258</v>
+        <v>11.3065242767334</v>
       </c>
       <c r="I114" t="n">
         <v>-80.59521829799431</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>32.91224241256714</v>
+        <v>15.95758199691772</v>
       </c>
       <c r="I115" t="n">
         <v>-39.01225647752146</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>36.90075874328613</v>
+        <v>17.95047521591187</v>
       </c>
       <c r="I116" t="n">
         <v>-24.85658581154554</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>38.8953685760498</v>
+        <v>18.94736289978027</v>
       </c>
       <c r="I117" t="n">
         <v>-18.33338096086524</v>
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>41.88328981399536</v>
+        <v>19.9463963508606</v>
       </c>
       <c r="I118" t="n">
         <v>-13.23744832618838</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>47.86339998245239</v>
+        <v>24.85021352767944</v>
       </c>
       <c r="I119" t="n">
         <v>-9.036638998277976</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>90.75617790222168</v>
+        <v>62.82830238342285</v>
       </c>
       <c r="I120" t="n">
         <v>-2.13557309428383</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>26.91102027893066</v>
+        <v>6.708621978759766</v>
       </c>
       <c r="I121" t="n">
         <v>-89.19804935424524</v>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>28.92206907272339</v>
+        <v>13.9625072479248</v>
       </c>
       <c r="I122" t="n">
         <v>-43.04278882633804</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>30.91764450073242</v>
+        <v>14.96148109436035</v>
       </c>
       <c r="I123" t="n">
         <v>-27.47786075050034</v>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>32.90665149688721</v>
+        <v>15.95675945281982</v>
       </c>
       <c r="I124" t="n">
         <v>-20.73271222573086</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>34.91044044494629</v>
+        <v>16.95090532302856</v>
       </c>
       <c r="I125" t="n">
         <v>-15.97430308573494</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>42.41999387741087</v>
+        <v>21.00236415863035</v>
       </c>
       <c r="I126" t="n">
         <v>-11.47032071694581</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>96.42863273620605</v>
+        <v>65.82307815551758</v>
       </c>
       <c r="I127" t="n">
         <v>-7.98861066284645</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>28.92255783081055</v>
+        <v>3.676414489746094</v>
       </c>
       <c r="I128" t="n">
         <v>-65.05476353360359</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>30.95333576202393</v>
+        <v>15.00164270401001</v>
       </c>
       <c r="I129" t="n">
         <v>-37.97397184839551</v>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>33.9055061340332</v>
+        <v>15.96158742904663</v>
       </c>
       <c r="I130" t="n">
         <v>-25.2926654985048</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>35.87043285369873</v>
+        <v>16.95454120635986</v>
       </c>
       <c r="I131" t="n">
         <v>-19.52478176504972</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>37.90557384490967</v>
+        <v>17.94940233230591</v>
       </c>
       <c r="I132" t="n">
         <v>-14.97497113628763</v>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>43.91061067581177</v>
+        <v>21.93822860717773</v>
       </c>
       <c r="I133" t="n">
         <v>-10.98981215791238</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>99.73239898681641</v>
+        <v>45.36628723144531</v>
       </c>
       <c r="I134" t="n">
         <v>-7.167956638966913</v>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>20.94197273254395</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>-36.17507147065015</v>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>22.97399044036865</v>
+        <v>10.97486019134521</v>
       </c>
       <c r="I136" t="n">
         <v>-21.99341436444331</v>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>24.93351697921753</v>
+        <v>12.52394914627075</v>
       </c>
       <c r="I137" t="n">
         <v>-10.7100600997954</v>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>26.92854404449463</v>
+        <v>12.99238204956055</v>
       </c>
       <c r="I138" t="n">
         <v>-8.575140444880596</v>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>28.92613410949707</v>
+        <v>14.6527886390686</v>
       </c>
       <c r="I139" t="n">
         <v>-6.746309302885326</v>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>34.90785360336304</v>
+        <v>25.95802545547483</v>
       </c>
       <c r="I140" t="n">
         <v>-4.69815993726561</v>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>76.79438591003418</v>
+        <v>66.10465049743652</v>
       </c>
       <c r="I141" t="n">
         <v>-2.727180357512142</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>15.88344573974609</v>
+        <v>15.94328880310059</v>
       </c>
       <c r="I142" t="n">
         <v>-80.59521829799431</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>17.17557907104492</v>
+        <v>17.45026111602783</v>
       </c>
       <c r="I143" t="n">
         <v>-39.01225647752146</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>18.43589544296265</v>
+        <v>18.64141225814819</v>
       </c>
       <c r="I144" t="n">
         <v>-24.85658581154554</v>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>19.27542686462402</v>
+        <v>19.39237117767334</v>
       </c>
       <c r="I145" t="n">
         <v>-18.33338096086524</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>20.26069164276123</v>
+        <v>20.15894651412964</v>
       </c>
       <c r="I146" t="n">
         <v>-13.23744832618838</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>23.43667745590209</v>
+        <v>22.38434553146361</v>
       </c>
       <c r="I147" t="n">
         <v>-9.036638998277976</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>572828.8283348083</v>
+        <v>108.3147525787354</v>
       </c>
       <c r="I148" t="n">
         <v>-2.13557309428383</v>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>16.56818389892578</v>
+        <v>16.89457893371582</v>
       </c>
       <c r="I149" t="n">
         <v>-89.19804935424524</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>17.8259015083313</v>
+        <v>18.09797286987305</v>
       </c>
       <c r="I150" t="n">
         <v>-43.04278882633804</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>18.95010471343994</v>
+        <v>18.9507007598877</v>
       </c>
       <c r="I151" t="n">
         <v>-27.47786075050034</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>19.71781253814697</v>
+        <v>19.61016654968262</v>
       </c>
       <c r="I152" t="n">
         <v>-20.73271222573086</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>20.78074216842651</v>
+        <v>20.59090137481689</v>
       </c>
       <c r="I153" t="n">
         <v>-15.97430308573494</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>25.17192363739012</v>
+        <v>24.76725578308105</v>
       </c>
       <c r="I154" t="n">
         <v>-11.47032071694581</v>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>55.84955215454102</v>
+        <v>150.8171558380127</v>
       </c>
       <c r="I155" t="n">
         <v>-7.98861066284645</v>
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>15.86151123046875</v>
+        <v>12.22562789916992</v>
       </c>
       <c r="I156" t="n">
         <v>-65.05476353360359</v>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>18.20049285888672</v>
+        <v>17.93756484985352</v>
       </c>
       <c r="I157" t="n">
         <v>-37.97397184839551</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>19.40107345581055</v>
+        <v>19.156813621521</v>
       </c>
       <c r="I158" t="n">
         <v>-25.2926654985048</v>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>20.11895179748535</v>
+        <v>19.89877223968506</v>
       </c>
       <c r="I159" t="n">
         <v>-19.52478176504972</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>21.30651473999023</v>
+        <v>20.86490392684937</v>
       </c>
       <c r="I160" t="n">
         <v>-14.97497113628763</v>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>25.15287399291992</v>
+        <v>23.96123409271239</v>
       </c>
       <c r="I161" t="n">
         <v>-10.98981215791238</v>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>72.9827880859375</v>
+        <v>3688.81368637085</v>
       </c>
       <c r="I162" t="n">
         <v>-7.167956638966913</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>17.30340719223022</v>
+        <v>17.39550828933716</v>
       </c>
       <c r="I164" t="n">
         <v>-21.99341436444331</v>
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>18.89628171920776</v>
+        <v>18.66614818572998</v>
       </c>
       <c r="I165" t="n">
         <v>-10.7100600997954</v>
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>19.75464820861816</v>
+        <v>19.5927619934082</v>
       </c>
       <c r="I166" t="n">
         <v>-8.575140444880596</v>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>20.78473567962646</v>
+        <v>20.94519138336182</v>
       </c>
       <c r="I167" t="n">
         <v>-6.746309302885326</v>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>24.28759336471557</v>
+        <v>26.92962884902954</v>
       </c>
       <c r="I168" t="n">
         <v>-4.69815993726561</v>
@@ -7341,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>48.87127876281738</v>
+        <v>2467.065095901489</v>
       </c>
       <c r="I169" t="n">
         <v>-2.727180357512142</v>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>2.99382209777832</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>-80.59521829799431</v>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>3.986358642578125</v>
+        <v>2.988100051879883</v>
       </c>
       <c r="I171" t="n">
         <v>-39.01225647752146</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>3.994762897491455</v>
+        <v>2.993345260620117</v>
       </c>
       <c r="I172" t="n">
         <v>-24.85658581154554</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>4.987239837646484</v>
+        <v>3.988862037658691</v>
       </c>
       <c r="I173" t="n">
         <v>-18.33338096086524</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>5.984067916870117</v>
+        <v>4.757881164550781</v>
       </c>
       <c r="I174" t="n">
         <v>-13.23744832618838</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>6.99087381362915</v>
+        <v>7.94628858566284</v>
       </c>
       <c r="I175" t="n">
         <v>-9.036638998277976</v>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>404.9632549285889</v>
+        <v>28.98359298706055</v>
       </c>
       <c r="I176" t="n">
         <v>-2.13557309428383</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>3.454685211181641</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>-89.19804935424524</v>
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>3.985869884490967</v>
+        <v>2.990710735321045</v>
       </c>
       <c r="I178" t="n">
         <v>-43.04278882633804</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>3.990411758422852</v>
+        <v>2.995133399963379</v>
       </c>
       <c r="I179" t="n">
         <v>-27.47786075050034</v>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>4.987001419067383</v>
+        <v>3.989934921264648</v>
       </c>
       <c r="I180" t="n">
         <v>-20.73271222573086</v>
@@ -7833,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>5.981743335723877</v>
+        <v>4.981637001037598</v>
       </c>
       <c r="I181" t="n">
         <v>-15.97430308573494</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>7.947182655334471</v>
+        <v>9.223461151123033</v>
       </c>
       <c r="I182" t="n">
         <v>-11.47032071694581</v>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>21.95334434509277</v>
+        <v>433.4487915039062</v>
       </c>
       <c r="I183" t="n">
         <v>-7.98861066284645</v>
@@ -7957,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>2.985954284667969</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>-65.05476353360359</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>3.986835479736328</v>
+        <v>2.986884117126465</v>
       </c>
       <c r="I185" t="n">
         <v>-37.97397184839551</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>4.024207592010498</v>
+        <v>2.99304723739624</v>
       </c>
       <c r="I186" t="n">
         <v>-25.2926654985048</v>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>4.987716674804688</v>
+        <v>3.988981246948242</v>
       </c>
       <c r="I187" t="n">
         <v>-19.52478176504972</v>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>5.983889102935791</v>
+        <v>4.246771335601807</v>
       </c>
       <c r="I188" t="n">
         <v>-14.97497113628763</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>7.963597774505614</v>
+        <v>8.012521266937254</v>
       </c>
       <c r="I189" t="n">
         <v>-10.98981215791238</v>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>16.39413833618164</v>
+        <v>101.5253067016602</v>
       </c>
       <c r="I190" t="n">
         <v>-7.167956638966913</v>
@@ -8241,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>2.988338470458984</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>-36.17507147065015</v>
@@ -8281,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>3.956496715545654</v>
+        <v>2.988576889038086</v>
       </c>
       <c r="I192" t="n">
         <v>-21.99341436444331</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>3.989696502685547</v>
+        <v>2.993106842041016</v>
       </c>
       <c r="I193" t="n">
         <v>-10.7100600997954</v>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>4.95755672454834</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="I194" t="n">
         <v>-8.575140444880596</v>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>5.02389669418335</v>
+        <v>4.841089248657227</v>
       </c>
       <c r="I195" t="n">
         <v>-6.746309302885326</v>
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>7.023704051971435</v>
+        <v>8.001196384429914</v>
       </c>
       <c r="I196" t="n">
         <v>-4.69815993726561</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>12.49980926513672</v>
+        <v>38.86270523071289</v>
       </c>
       <c r="I197" t="n">
         <v>-2.727180357512142</v>
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>4.983901977539062</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>-80.59521829799431</v>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>5.981171131134033</v>
+        <v>4.984617233276367</v>
       </c>
       <c r="I199" t="n">
         <v>-39.01225647752146</v>
@@ -8609,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>6.981134414672852</v>
+        <v>5.947709083557129</v>
       </c>
       <c r="I200" t="n">
         <v>-24.85658581154554</v>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>7.979154586791992</v>
+        <v>6.758809089660645</v>
       </c>
       <c r="I201" t="n">
         <v>-18.33338096086524</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>8.977949619293213</v>
+        <v>7.973253726959229</v>
       </c>
       <c r="I202" t="n">
         <v>-13.23744832618838</v>
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>13.87165784835815</v>
+        <v>13.04872035980223</v>
       </c>
       <c r="I203" t="n">
         <v>-9.036638998277976</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>119.621753692627</v>
+        <v>24.76739883422852</v>
       </c>
       <c r="I204" t="n">
         <v>-2.13557309428383</v>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>5.983829498291016</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>-89.19804935424524</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>6.9815993309021</v>
+        <v>5.980229377746582</v>
       </c>
       <c r="I206" t="n">
         <v>-43.04278882633804</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>8.970260620117188</v>
+        <v>5.99902868270874</v>
       </c>
       <c r="I207" t="n">
         <v>-27.47786075050034</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>9.971261024475098</v>
+        <v>6.984591484069824</v>
       </c>
       <c r="I208" t="n">
         <v>-20.73271222573086</v>
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>10.98138093948364</v>
+        <v>7.981717586517334</v>
       </c>
       <c r="I209" t="n">
         <v>-15.97430308573494</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>14.74329233169555</v>
+        <v>12.14545965194701</v>
       </c>
       <c r="I210" t="n">
         <v>-11.47032071694581</v>
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>53.0555248260498</v>
+        <v>71.2742805480957</v>
       </c>
       <c r="I211" t="n">
         <v>-7.98861066284645</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>5.990028381347656</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>-65.05476353360359</v>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>8.976924419403076</v>
+        <v>6.918025016784669</v>
       </c>
       <c r="I213" t="n">
         <v>-37.97397184839551</v>
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>10.97077131271362</v>
+        <v>7.978200912475586</v>
       </c>
       <c r="I214" t="n">
         <v>-25.2926654985048</v>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>12.96555995941162</v>
+        <v>8.976221084594727</v>
       </c>
       <c r="I215" t="n">
         <v>-19.52478176504972</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>14.96034860610962</v>
+        <v>9.974062442779541</v>
       </c>
       <c r="I216" t="n">
         <v>-14.97497113628763</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>19.91422176361084</v>
+        <v>13.81350755691528</v>
       </c>
       <c r="I217" t="n">
         <v>-10.98981215791238</v>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>56.84661865234375</v>
+        <v>45.58753967285156</v>
       </c>
       <c r="I218" t="n">
         <v>-7.167956638966913</v>
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>4.98199462890625</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>-36.17507147065015</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>5.950665473937988</v>
+        <v>4.985570907592773</v>
       </c>
       <c r="I220" t="n">
         <v>-21.99341436444331</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>6.977677345275879</v>
+        <v>5.980014801025391</v>
       </c>
       <c r="I221" t="n">
         <v>-10.7100600997954</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>7.974863052368164</v>
+        <v>6.831765174865723</v>
       </c>
       <c r="I222" t="n">
         <v>-8.575140444880596</v>
@@ -9541,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>8.975982666015625</v>
+        <v>7.392168045043945</v>
       </c>
       <c r="I223" t="n">
         <v>-6.746309302885326</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>11.93650960922241</v>
+        <v>12.44082450866698</v>
       </c>
       <c r="I224" t="n">
         <v>-4.69815993726561</v>
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>18.51844787597656</v>
+        <v>25.92921257019043</v>
       </c>
       <c r="I225" t="n">
         <v>-2.727180357512142</v>
@@ -9669,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>80.79385757446289</v>
+        <v>28.78355979919434</v>
       </c>
       <c r="I226" t="n">
         <v>-80.59521829799431</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>83.77976417541504</v>
+        <v>34.90567207336426</v>
       </c>
       <c r="I227" t="n">
         <v>-39.01225647752146</v>
@@ -9749,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>86.73453330993652</v>
+        <v>35.9041690826416</v>
       </c>
       <c r="I228" t="n">
         <v>-24.85658581154554</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>89.72752094268799</v>
+        <v>36.90195083618164</v>
       </c>
       <c r="I229" t="n">
         <v>-18.33338096086524</v>
@@ -9829,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>93.72121095657349</v>
+        <v>38.89644145965576</v>
       </c>
       <c r="I230" t="n">
         <v>-13.23744832618838</v>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>105.8340430259704</v>
+        <v>48.63973855972289</v>
       </c>
       <c r="I231" t="n">
         <v>-9.036638998277976</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>139.5914554595947</v>
+        <v>77.11482048034668</v>
       </c>
       <c r="I232" t="n">
         <v>-2.13557309428383</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>80.74712753295898</v>
+        <v>21.68107032775879</v>
       </c>
       <c r="I233" t="n">
         <v>-89.19804935424524</v>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>83.76253843307495</v>
+        <v>34.90591049194336</v>
       </c>
       <c r="I234" t="n">
         <v>-43.04278882633804</v>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>86.97253465652466</v>
+        <v>35.9044075012207</v>
       </c>
       <c r="I235" t="n">
         <v>-27.47786075050034</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>89.80429172515869</v>
+        <v>36.90207004547119</v>
       </c>
       <c r="I236" t="n">
         <v>-20.73271222573086</v>
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>96.748948097229</v>
+        <v>38.33132982254028</v>
       </c>
       <c r="I237" t="n">
         <v>-15.97430308573494</v>
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>112.7904057502746</v>
+        <v>42.36962795257565</v>
       </c>
       <c r="I238" t="n">
         <v>-11.47032071694581</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>190.8998489379883</v>
+        <v>65.38796424865723</v>
       </c>
       <c r="I239" t="n">
         <v>-7.98861066284645</v>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>81.20536804199219</v>
+        <v>23.46372604370117</v>
       </c>
       <c r="I240" t="n">
         <v>-65.05476353360359</v>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>83.77619981765747</v>
+        <v>34.90591049194336</v>
       </c>
       <c r="I241" t="n">
         <v>-37.97397184839551</v>
@@ -10317,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>87.72724866867065</v>
+        <v>35.9046459197998</v>
       </c>
       <c r="I242" t="n">
         <v>-25.2926654985048</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>90.79396724700928</v>
+        <v>36.90171241760254</v>
       </c>
       <c r="I243" t="n">
         <v>-19.52478176504972</v>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>96.77720069885254</v>
+        <v>37.93436288833618</v>
       </c>
       <c r="I244" t="n">
         <v>-14.97497113628763</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>108.7852120399475</v>
+        <v>44.23168897628781</v>
       </c>
       <c r="I245" t="n">
         <v>-10.98981215791238</v>
@@ -10477,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>277.6637077331543</v>
+        <v>59.65662002563477</v>
       </c>
       <c r="I246" t="n">
         <v>-7.167956638966913</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>78.78518104553223</v>
+        <v>23.21624755859375</v>
       </c>
       <c r="I247" t="n">
         <v>-36.17507147065015</v>
@@ -10561,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>84.77281332015991</v>
+        <v>35.28820276260376</v>
       </c>
       <c r="I248" t="n">
         <v>-21.99341436444331</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>87.79972791671753</v>
+        <v>36.73917055130005</v>
       </c>
       <c r="I249" t="n">
         <v>-10.7100600997954</v>
@@ -10641,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>91.71652793884277</v>
+        <v>37.89901733398438</v>
       </c>
       <c r="I250" t="n">
         <v>-8.575140444880596</v>
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>98.38926792144775</v>
+        <v>40.88938236236572</v>
       </c>
       <c r="I251" t="n">
         <v>-6.746309302885326</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>119.1315054893493</v>
+        <v>68.1255221366881</v>
       </c>
       <c r="I252" t="n">
         <v>-4.69815993726561</v>
@@ -10761,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>270.2767848968506</v>
+        <v>138.176441192627</v>
       </c>
       <c r="I253" t="n">
         <v>-2.727180357512142</v>
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>4.952192306518555</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>-80.59521829799431</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>4.986763000488281</v>
+        <v>2.994453907012939</v>
       </c>
       <c r="I255" t="n">
         <v>-39.01225647752146</v>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>5.984306335449219</v>
+        <v>3.988981246948242</v>
       </c>
       <c r="I256" t="n">
         <v>-24.85658581154554</v>
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>6.981611251831055</v>
+        <v>4.250049591064453</v>
       </c>
       <c r="I257" t="n">
         <v>-18.33338096086524</v>
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>7.979393005371094</v>
+        <v>5.019485950469971</v>
       </c>
       <c r="I258" t="n">
         <v>-13.23744832618838</v>
@@ -11009,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>9.378397464752187</v>
+        <v>6.980454921722412</v>
       </c>
       <c r="I259" t="n">
         <v>-9.036638998277976</v>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>50.13394355773926</v>
+        <v>26.05342864990234</v>
       </c>
       <c r="I260" t="n">
         <v>-2.13557309428383</v>
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>4.980802536010742</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>-89.19804935424524</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>5.975854396820068</v>
+        <v>3.956508636474609</v>
       </c>
       <c r="I262" t="n">
         <v>-43.04278882633804</v>
@@ -11173,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>6.525337696075439</v>
+        <v>3.989219665527344</v>
       </c>
       <c r="I263" t="n">
         <v>-27.47786075050034</v>
@@ -11213,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>7.017254829406738</v>
+        <v>4.569172859191895</v>
       </c>
       <c r="I264" t="n">
         <v>-20.73271222573086</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>8.01539421081543</v>
+        <v>5.020320415496826</v>
       </c>
       <c r="I265" t="n">
         <v>-15.97430308573494</v>
@@ -11293,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>11.14870309829712</v>
+        <v>6.981384754180908</v>
       </c>
       <c r="I266" t="n">
         <v>-11.47032071694581</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>45.36008834838867</v>
+        <v>29.69241142272949</v>
       </c>
       <c r="I267" t="n">
         <v>-7.98861066284645</v>
@@ -11377,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>4.982471466064453</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>-65.05476353360359</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>4.988181591033936</v>
+        <v>2.992129325866699</v>
       </c>
       <c r="I269" t="n">
         <v>-37.97397184839551</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>5.987107753753662</v>
+        <v>3.988742828369141</v>
       </c>
       <c r="I270" t="n">
         <v>-25.2926654985048</v>
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>6.993889808654785</v>
+        <v>3.998398780822754</v>
       </c>
       <c r="I271" t="n">
         <v>-19.52478176504972</v>
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>8.008062839508057</v>
+        <v>4.989385604858398</v>
       </c>
       <c r="I272" t="n">
         <v>-14.97497113628763</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>10.33967733383178</v>
+        <v>6.023240089416503</v>
       </c>
       <c r="I273" t="n">
         <v>-10.98981215791238</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>18.67365837097168</v>
+        <v>28.8398265838623</v>
       </c>
       <c r="I274" t="n">
         <v>-7.167956638966913</v>
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>4.983663558959961</v>
+        <v>2.983808517456055</v>
       </c>
       <c r="I275" t="n">
         <v>-36.17507147065015</v>
@@ -11701,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>5.98071813583374</v>
+        <v>3.977251052856445</v>
       </c>
       <c r="I276" t="n">
         <v>-21.99341436444331</v>
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>6.948649883270264</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="I277" t="n">
         <v>-10.7100600997954</v>
@@ -11781,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>7.943511009216309</v>
+        <v>4.985570907592773</v>
       </c>
       <c r="I278" t="n">
         <v>-8.575140444880596</v>
@@ -11821,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>8.973419666290283</v>
+        <v>5.982697010040283</v>
       </c>
       <c r="I279" t="n">
         <v>-6.746309302885326</v>
@@ -11861,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>10.96956729888916</v>
+        <v>8.977174758911133</v>
       </c>
       <c r="I280" t="n">
         <v>-4.69815993726561</v>
@@ -11901,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>18.95022392272949</v>
+        <v>15.06590843200684</v>
       </c>
       <c r="I281" t="n">
         <v>-2.727180357512142</v>
@@ -11949,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>2.987861633300781</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>-80.59521829799431</v>
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>3.985154628753662</v>
+        <v>2.958035469055176</v>
       </c>
       <c r="I283" t="n">
         <v>-39.01225647752146</v>
@@ -12029,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>3.994405269622803</v>
+        <v>2.992153167724609</v>
       </c>
       <c r="I284" t="n">
         <v>-24.85658581154554</v>
@@ -12069,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>4.989027976989746</v>
+        <v>2.996325492858887</v>
       </c>
       <c r="I285" t="n">
         <v>-18.33338096086524</v>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>5.985379219055176</v>
+        <v>3.989934921264648</v>
       </c>
       <c r="I286" t="n">
         <v>-13.23744832618838</v>
@@ -12149,7 +12149,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>8.974575996398926</v>
+        <v>8.317947387695304</v>
       </c>
       <c r="I287" t="n">
         <v>-9.036638998277976</v>
@@ -12189,7 +12189,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>43.27964782714844</v>
+        <v>17.77744293212891</v>
       </c>
       <c r="I288" t="n">
         <v>-2.13557309428383</v>
@@ -12233,7 +12233,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>2.921104431152344</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>-89.19804935424524</v>
@@ -12273,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>3.596591949462891</v>
+        <v>1.995086669921875</v>
       </c>
       <c r="I290" t="n">
         <v>-43.04278882633804</v>
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>3.989458084106445</v>
+        <v>2.991437911987305</v>
       </c>
       <c r="I291" t="n">
         <v>-27.47786075050034</v>
@@ -12353,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>4.956603050231934</v>
+        <v>2.992630004882812</v>
       </c>
       <c r="I292" t="n">
         <v>-20.73271222573086</v>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>5.044400691986084</v>
+        <v>3.953814506530762</v>
       </c>
       <c r="I293" t="n">
         <v>-15.97430308573494</v>
@@ -12433,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>7.388424873352025</v>
+        <v>5.022573471069336</v>
       </c>
       <c r="I294" t="n">
         <v>-11.47032071694581</v>
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>29.79063987731934</v>
+        <v>31.94737434387207</v>
       </c>
       <c r="I295" t="n">
         <v>-7.98861066284645</v>
@@ -12517,7 +12517,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>2.991676330566406</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>-65.05476353360359</v>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>3.987991809844971</v>
+        <v>2.078604698181153</v>
       </c>
       <c r="I297" t="n">
         <v>-37.97397184839551</v>
@@ -12597,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>4.930615425109863</v>
+        <v>2.991914749145508</v>
       </c>
       <c r="I298" t="n">
         <v>-25.2926654985048</v>
@@ -12637,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>4.990577697753906</v>
+        <v>2.99525260925293</v>
       </c>
       <c r="I299" t="n">
         <v>-19.52478176504972</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>5.98752498626709</v>
+        <v>3.989934921264648</v>
       </c>
       <c r="I300" t="n">
         <v>-14.97497113628763</v>
@@ -12717,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>7.980310916900635</v>
+        <v>7.531201839447003</v>
       </c>
       <c r="I301" t="n">
         <v>-10.98981215791238</v>
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>54.70013618469238</v>
+        <v>29.74224090576172</v>
       </c>
       <c r="I302" t="n">
         <v>-7.167956638966913</v>
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>2.87175178527832</v>
+        <v>1.96075439453125</v>
       </c>
       <c r="I303" t="n">
         <v>-36.17507147065015</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="n">
-        <v>2.991437911987305</v>
+        <v>1.99127197265625</v>
       </c>
       <c r="I304" t="n">
         <v>-21.99341436444331</v>
@@ -12881,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>3.954827785491943</v>
+        <v>2.068161964416504</v>
       </c>
       <c r="I305" t="n">
         <v>-10.7100600997954</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>3.989458084106445</v>
+        <v>2.992510795593262</v>
       </c>
       <c r="I306" t="n">
         <v>-8.575140444880596</v>
@@ -12961,7 +12961,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>4.982709884643555</v>
+        <v>3.174304962158203</v>
       </c>
       <c r="I307" t="n">
         <v>-6.746309302885326</v>
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>5.993652343749999</v>
+        <v>5.020463466644284</v>
       </c>
       <c r="I308" t="n">
         <v>-4.69815993726561</v>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>24.07217025756836</v>
+        <v>15.04158973693848</v>
       </c>
       <c r="I309" t="n">
         <v>-2.727180357512142</v>
@@ -13129,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>18.94949674606323</v>
+        <v>18.95092725753784</v>
       </c>
       <c r="I311" t="n">
         <v>-39.01225647752146</v>
@@ -13169,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>20.94483375549316</v>
+        <v>20.94453573226929</v>
       </c>
       <c r="I312" t="n">
         <v>-24.85658581154554</v>
@@ -13209,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>23.93496036529541</v>
+        <v>22.93825149536133</v>
       </c>
       <c r="I313" t="n">
         <v>-18.33338096086524</v>
@@ -13249,7 +13249,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>26.44926309585571</v>
+        <v>25.92802047729492</v>
       </c>
       <c r="I314" t="n">
         <v>-13.23744832618838</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>33.87579917907715</v>
+        <v>33.54923725128174</v>
       </c>
       <c r="I315" t="n">
         <v>-9.036638998277976</v>
@@ -13329,7 +13329,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="n">
-        <v>598.4878540039062</v>
+        <v>67.82078742980957</v>
       </c>
       <c r="I316" t="n">
         <v>-2.13557309428383</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="n">
-        <v>11.03448867797852</v>
+        <v>17.95434951782227</v>
       </c>
       <c r="I317" t="n">
         <v>-89.19804935424524</v>
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>19.94704008102417</v>
+        <v>20.8939790725708</v>
       </c>
       <c r="I318" t="n">
         <v>-43.04278882633804</v>
@@ -13453,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>21.93927764892578</v>
+        <v>21.94613218307495</v>
       </c>
       <c r="I319" t="n">
         <v>-27.47786075050034</v>
@@ -13493,7 +13493,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>23.91445636749268</v>
+        <v>23.37348461151123</v>
       </c>
       <c r="I320" t="n">
         <v>-20.73271222573086</v>
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>25.9631872177124</v>
+        <v>25.67237615585327</v>
       </c>
       <c r="I321" t="n">
         <v>-15.97430308573494</v>
@@ -13573,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>34.22558307647702</v>
+        <v>32.04134702682484</v>
       </c>
       <c r="I322" t="n">
         <v>-11.47032071694581</v>
@@ -13613,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>77.79097557067871</v>
+        <v>285359.3547344208</v>
       </c>
       <c r="I323" t="n">
         <v>-7.98861066284645</v>
@@ -13657,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>17.92025566101074</v>
+        <v>6.932735443115234</v>
       </c>
       <c r="I324" t="n">
         <v>-65.05476353360359</v>
@@ -13697,7 +13697,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>19.26167011260986</v>
+        <v>18.95201206207275</v>
       </c>
       <c r="I325" t="n">
         <v>-37.97397184839551</v>
@@ -13737,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>20.94411849975586</v>
+        <v>20.94554901123047</v>
       </c>
       <c r="I326" t="n">
         <v>-25.2926654985048</v>
@@ -13777,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>22.93848991394043</v>
+        <v>22.57108688354492</v>
       </c>
       <c r="I327" t="n">
         <v>-19.52478176504972</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>25.16603469848633</v>
+        <v>23.95170927047729</v>
       </c>
       <c r="I328" t="n">
         <v>-14.97497113628763</v>
@@ -13857,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>31.88841342926025</v>
+        <v>29.92130517959595</v>
       </c>
       <c r="I329" t="n">
         <v>-10.98981215791238</v>
@@ -13897,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>2326.582908630371</v>
+        <v>171212.8462791443</v>
       </c>
       <c r="I330" t="n">
         <v>-7.167956638966913</v>
@@ -14021,7 +14021,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>21.94380760192871</v>
+        <v>21.97253704071045</v>
       </c>
       <c r="I333" t="n">
         <v>-10.7100600997954</v>
@@ -14061,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>24.9321460723877</v>
+        <v>24.93298053741455</v>
       </c>
       <c r="I334" t="n">
         <v>-8.575140444880596</v>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>28.1984806060791</v>
+        <v>28.11646461486816</v>
       </c>
       <c r="I335" t="n">
         <v>-6.746309302885326</v>
@@ -14141,7 +14141,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="n">
-        <v>34.9132776260376</v>
+        <v>36.1916422843933</v>
       </c>
       <c r="I336" t="n">
         <v>-4.69815993726561</v>
@@ -14181,7 +14181,7 @@
         <v>1</v>
       </c>
       <c r="H337" t="n">
-        <v>1341.723680496216</v>
+        <v>4757.980346679688</v>
       </c>
       <c r="I337" t="n">
         <v>-2.727180357512142</v>
@@ -14229,7 +14229,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>20.71833610534668</v>
+        <v>11.46769523620605</v>
       </c>
       <c r="I338" t="n">
         <v>-80.59521829799431</v>
@@ -14269,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>21.9058632850647</v>
+        <v>22.01136350631714</v>
       </c>
       <c r="I339" t="n">
         <v>-39.01225647752146</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>23.4752893447876</v>
+        <v>23.79500865936279</v>
       </c>
       <c r="I340" t="n">
         <v>-24.85658581154554</v>
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>24.61743354797363</v>
+        <v>24.83415603637695</v>
       </c>
       <c r="I341" t="n">
         <v>-18.33338096086524</v>
@@ -14389,7 +14389,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>25.91460943222046</v>
+        <v>25.95096826553345</v>
       </c>
       <c r="I342" t="n">
         <v>-13.23744832618838</v>
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>28.94734144210814</v>
+        <v>30.53473234176631</v>
       </c>
       <c r="I343" t="n">
         <v>-9.036638998277976</v>
@@ -14469,7 +14469,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>6242.477416992188</v>
+        <v>64.88466262817383</v>
       </c>
       <c r="I344" t="n">
         <v>-2.13557309428383</v>
@@ -14553,7 +14553,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>21.31315469741821</v>
+        <v>21.71263694763184</v>
       </c>
       <c r="I346" t="n">
         <v>-43.04278882633804</v>
@@ -14593,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>22.94075489044189</v>
+        <v>23.44292402267456</v>
       </c>
       <c r="I347" t="n">
         <v>-27.47786075050034</v>
@@ -14633,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>24.00171756744385</v>
+        <v>24.59168434143066</v>
       </c>
       <c r="I348" t="n">
         <v>-20.73271222573086</v>
@@ -14673,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>25.52783489227295</v>
+        <v>25.99221467971802</v>
       </c>
       <c r="I349" t="n">
         <v>-15.97430308573494</v>
@@ -14713,7 +14713,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>29.97549772262571</v>
+        <v>30.1539897918701</v>
       </c>
       <c r="I350" t="n">
         <v>-11.47032071694581</v>
@@ -14753,7 +14753,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="n">
-        <v>689.1381740570068</v>
+        <v>5334.918260574341</v>
       </c>
       <c r="I351" t="n">
         <v>-7.98861066284645</v>
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>19.71030235290527</v>
+        <v>12.58254051208496</v>
       </c>
       <c r="I352" t="n">
         <v>-65.05476353360359</v>
@@ -14837,7 +14837,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>21.94229364395142</v>
+        <v>22.14006185531616</v>
       </c>
       <c r="I353" t="n">
         <v>-37.97397184839551</v>
@@ -14877,7 +14877,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>23.77444505691528</v>
+        <v>23.76580238342285</v>
       </c>
       <c r="I354" t="n">
         <v>-25.2926654985048</v>
@@ -14917,7 +14917,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>24.93381500244141</v>
+        <v>24.92809295654297</v>
       </c>
       <c r="I355" t="n">
         <v>-19.52478176504972</v>
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>26.11070871353149</v>
+        <v>26.3979434967041</v>
       </c>
       <c r="I356" t="n">
         <v>-14.97497113628763</v>
@@ -14997,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>29.26955223083496</v>
+        <v>31.69689178466797</v>
       </c>
       <c r="I357" t="n">
         <v>-10.98981215791238</v>
@@ -15037,7 +15037,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>55.85527420043945</v>
+        <v>138.0281448364258</v>
       </c>
       <c r="I358" t="n">
         <v>-7.167956638966913</v>
@@ -15081,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>20.02954483032227</v>
+        <v>13.36288452148438</v>
       </c>
       <c r="I359" t="n">
         <v>-36.17507147065015</v>
@@ -15121,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>21.43783569335938</v>
+        <v>21.80602550506592</v>
       </c>
       <c r="I360" t="n">
         <v>-21.99341436444331</v>
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>22.93890714645386</v>
+        <v>23.33170175552368</v>
       </c>
       <c r="I361" t="n">
         <v>-10.7100600997954</v>
@@ -15201,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>24.2689847946167</v>
+        <v>24.60789680480957</v>
       </c>
       <c r="I362" t="n">
         <v>-8.575140444880596</v>
@@ -15241,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>25.90298652648926</v>
+        <v>25.93708038330078</v>
       </c>
       <c r="I363" t="n">
         <v>-6.746309302885326</v>
@@ -15281,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>29.14247512817383</v>
+        <v>31.06989860534667</v>
       </c>
       <c r="I364" t="n">
         <v>-4.69815993726561</v>
@@ -15321,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>1269.787788391113</v>
+        <v>20832.29231834412</v>
       </c>
       <c r="I365" t="n">
         <v>-2.727180357512142</v>
@@ -15369,7 +15369,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>15.92326164245605</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>-80.59521829799431</v>
@@ -15409,7 +15409,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>16.95867776870728</v>
+        <v>8.976435661315918</v>
       </c>
       <c r="I367" t="n">
         <v>-39.01225647752146</v>
@@ -15449,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>18.912672996521</v>
+        <v>9.97394323348999</v>
       </c>
       <c r="I368" t="n">
         <v>-24.85658581154554</v>
@@ -15489,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>19.91081237792969</v>
+        <v>10.97011566162109</v>
       </c>
       <c r="I369" t="n">
         <v>-18.33338096086524</v>
@@ -15529,7 +15529,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>20.98244428634644</v>
+        <v>11.96235418319702</v>
       </c>
       <c r="I370" t="n">
         <v>-13.23744832618838</v>
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>24.10647869110107</v>
+        <v>15.91808795928955</v>
       </c>
       <c r="I371" t="n">
         <v>-9.036638998277976</v>
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>38.31958770751953</v>
+        <v>42.96016693115234</v>
       </c>
       <c r="I372" t="n">
         <v>-2.13557309428383</v>
@@ -15653,7 +15653,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>15.95687866210938</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>-89.19804935424524</v>
@@ -15693,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>16.95606708526611</v>
+        <v>8.975958824157715</v>
       </c>
       <c r="I374" t="n">
         <v>-43.04278882633804</v>
@@ -15733,7 +15733,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>18.91398429870605</v>
+        <v>9.973049163818359</v>
       </c>
       <c r="I375" t="n">
         <v>-27.47786075050034</v>
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>19.9122428894043</v>
+        <v>10.96892356872559</v>
       </c>
       <c r="I376" t="n">
         <v>-20.73271222573086</v>
@@ -15813,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>20.94417810440063</v>
+        <v>11.01469993591309</v>
       </c>
       <c r="I377" t="n">
         <v>-15.97430308573494</v>
@@ -15853,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>24.93685483932495</v>
+        <v>14.03880119323728</v>
       </c>
       <c r="I378" t="n">
         <v>-11.47032071694581</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>57.7690601348877</v>
+        <v>24.96695518493652</v>
       </c>
       <c r="I379" t="n">
         <v>-7.98861066284645</v>
@@ -15937,7 +15937,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>15.95711708068848</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>-65.05476353360359</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>17.94751882553101</v>
+        <v>8.975732326507568</v>
       </c>
       <c r="I381" t="n">
         <v>-37.97397184839551</v>
@@ -16017,7 +16017,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>18.94783973693848</v>
+        <v>9.972751140594482</v>
       </c>
       <c r="I382" t="n">
         <v>-25.2926654985048</v>
@@ -16057,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>19.94514465332031</v>
+        <v>10.96701622009277</v>
       </c>
       <c r="I383" t="n">
         <v>-19.52478176504972</v>
@@ -16097,7 +16097,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>20.98166942596436</v>
+        <v>11.00516319274902</v>
       </c>
       <c r="I384" t="n">
         <v>-14.97497113628763</v>
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>25.92911720275879</v>
+        <v>14.06393051147459</v>
       </c>
       <c r="I385" t="n">
         <v>-10.98981215791238</v>
@@ -16177,7 +16177,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>53.85518074035645</v>
+        <v>35.23659706115723</v>
       </c>
       <c r="I386" t="n">
         <v>-7.167956638966913</v>
@@ -16221,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>15.95735549926758</v>
+        <v>8.970499038696289</v>
       </c>
       <c r="I387" t="n">
         <v>-36.17507147065015</v>
@@ -16261,7 +16261,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>17.91661977767944</v>
+        <v>9.918701648712158</v>
       </c>
       <c r="I388" t="n">
         <v>-21.99341436444331</v>
@@ -16301,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>18.94354820251465</v>
+        <v>9.99075174331665</v>
       </c>
       <c r="I389" t="n">
         <v>-10.7100600997954</v>
@@ -16341,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>19.94478702545166</v>
+        <v>10.97226142883301</v>
       </c>
       <c r="I390" t="n">
         <v>-8.575140444880596</v>
@@ -16381,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>20.97225189208984</v>
+        <v>12.50302791595459</v>
       </c>
       <c r="I391" t="n">
         <v>-6.746309302885326</v>
@@ -16421,7 +16421,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>24.30610656738278</v>
+        <v>17.9819583892822</v>
       </c>
       <c r="I392" t="n">
         <v>-4.69815993726561</v>
@@ -16461,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>61.66219711303711</v>
+        <v>42.71483421325684</v>
       </c>
       <c r="I393" t="n">
         <v>-2.727180357512142</v>
@@ -16509,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>47.17350006103516</v>
+        <v>42.62828826904297</v>
       </c>
       <c r="I394" t="n">
         <v>-80.59521829799431</v>
@@ -16549,7 +16549,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>51.00044012069702</v>
+        <v>49.4928240776062</v>
       </c>
       <c r="I395" t="n">
         <v>-39.01225647752146</v>
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>53.8715124130249</v>
+        <v>51.33295059204102</v>
       </c>
       <c r="I396" t="n">
         <v>-24.85658581154554</v>
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>57.8455924987793</v>
+        <v>52.90520191192627</v>
       </c>
       <c r="I397" t="n">
         <v>-18.33338096086524</v>
@@ -16669,7 +16669,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>62.8286600112915</v>
+        <v>55.85181713104248</v>
       </c>
       <c r="I398" t="n">
         <v>-13.23744832618838</v>
@@ -16709,7 +16709,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>74.5333433151245</v>
+        <v>65.82643985748291</v>
       </c>
       <c r="I399" t="n">
         <v>-9.036638998277976</v>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>551.5298843383789</v>
+        <v>148.9324569702148</v>
       </c>
       <c r="I400" t="n">
         <v>-2.13557309428383</v>
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>48.78044128417969</v>
+        <v>42.9995059967041</v>
       </c>
       <c r="I401" t="n">
         <v>-89.19804935424524</v>
@@ -16833,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>51.04256868362427</v>
+        <v>50.36368370056152</v>
       </c>
       <c r="I402" t="n">
         <v>-43.04278882633804</v>
@@ -16873,7 +16873,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>53.85744571685791</v>
+        <v>52.40762233734131</v>
       </c>
       <c r="I403" t="n">
         <v>-27.47786075050034</v>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>56.85162544250488</v>
+        <v>54.81100082397461</v>
       </c>
       <c r="I404" t="n">
         <v>-20.73271222573086</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>61.8101954460144</v>
+        <v>59.37844514846802</v>
       </c>
       <c r="I405" t="n">
         <v>-15.97430308573494</v>
@@ -16993,7 +16993,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>81.70934915542603</v>
+        <v>70.82735300064087</v>
       </c>
       <c r="I406" t="n">
         <v>-11.47032071694581</v>
@@ -17033,7 +17033,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>114.6938800811768</v>
+        <v>570.9958076477051</v>
       </c>
       <c r="I407" t="n">
         <v>-7.98861066284645</v>
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>50.83107948303223</v>
+        <v>41.28718376159668</v>
       </c>
       <c r="I408" t="n">
         <v>-65.05476353360359</v>
@@ -17117,7 +17117,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>52.75545120239258</v>
+        <v>50.37475824356079</v>
       </c>
       <c r="I409" t="n">
         <v>-37.97397184839551</v>
@@ -17157,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>55.28205633163452</v>
+        <v>52.49649286270142</v>
       </c>
       <c r="I410" t="n">
         <v>-25.2926654985048</v>
@@ -17197,7 +17197,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>57.82461166381836</v>
+        <v>54.49318885803223</v>
       </c>
       <c r="I411" t="n">
         <v>-19.52478176504972</v>
@@ -17237,7 +17237,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>61.86419725418091</v>
+        <v>58.19302797317505</v>
       </c>
       <c r="I412" t="n">
         <v>-14.97497113628763</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>73.47834110260004</v>
+        <v>69.96150016784668</v>
       </c>
       <c r="I413" t="n">
         <v>-10.98981215791238</v>
@@ -17317,7 +17317,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>158.524751663208</v>
+        <v>383.7594985961914</v>
       </c>
       <c r="I414" t="n">
         <v>-7.167956638966913</v>
@@ -17361,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>47.60527610778809</v>
+        <v>44.02017593383789</v>
       </c>
       <c r="I415" t="n">
         <v>-36.17507147065015</v>
@@ -17401,7 +17401,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>49.04340505599976</v>
+        <v>48.00608158111572</v>
       </c>
       <c r="I416" t="n">
         <v>-21.99341436444331</v>
@@ -17441,7 +17441,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>51.60737037658691</v>
+        <v>50.30310153961182</v>
       </c>
       <c r="I417" t="n">
         <v>-10.7100600997954</v>
@@ -17481,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>53.85434627532959</v>
+        <v>52.70767211914062</v>
       </c>
       <c r="I418" t="n">
         <v>-8.575140444880596</v>
@@ -17521,7 +17521,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>57.73651599884033</v>
+        <v>56.39839172363281</v>
       </c>
       <c r="I419" t="n">
         <v>-6.746309302885326</v>
@@ -17561,7 +17561,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>71.85915708541866</v>
+        <v>71.75024747848505</v>
       </c>
       <c r="I420" t="n">
         <v>-4.69815993726561</v>
@@ -17601,7 +17601,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>169.5475578308105</v>
+        <v>141.2162780761719</v>
       </c>
       <c r="I421" t="n">
         <v>-2.727180357512142</v>
@@ -17649,7 +17649,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>588.2365703582764</v>
+        <v>337.571382522583</v>
       </c>
       <c r="I422" t="n">
         <v>-80.59521829799431</v>
@@ -17689,7 +17689,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>603.2594799995422</v>
+        <v>342.6286816596985</v>
       </c>
       <c r="I423" t="n">
         <v>-39.01225647752146</v>
@@ -17729,7 +17729,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>619.3026304244995</v>
+        <v>348.9329218864441</v>
       </c>
       <c r="I424" t="n">
         <v>-24.85658581154554</v>
@@ -17769,7 +17769,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>634.8166465759277</v>
+        <v>356.9530248641968</v>
       </c>
       <c r="I425" t="n">
         <v>-18.33338096086524</v>
@@ -17809,7 +17809,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>667.7689552307129</v>
+        <v>375.3466606140137</v>
       </c>
       <c r="I426" t="n">
         <v>-13.23744832618838</v>
@@ -17849,7 +17849,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>725.0875115394592</v>
+        <v>443.3842420578003</v>
       </c>
       <c r="I427" t="n">
         <v>-9.036638998277976</v>
@@ -17889,7 +17889,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>990.7307624816895</v>
+        <v>618.5359954833984</v>
       </c>
       <c r="I428" t="n">
         <v>-2.13557309428383</v>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>589.2024040222168</v>
+        <v>337.1083736419678</v>
       </c>
       <c r="I429" t="n">
         <v>-89.19804935424524</v>
@@ -17973,7 +17973,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>597.116219997406</v>
+        <v>342.8636074066162</v>
       </c>
       <c r="I430" t="n">
         <v>-43.04278882633804</v>
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>613.6854290962219</v>
+        <v>350.1020073890686</v>
       </c>
       <c r="I431" t="n">
         <v>-27.47786075050034</v>
@@ -18053,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>630.281925201416</v>
+        <v>358.3676815032959</v>
       </c>
       <c r="I432" t="n">
         <v>-20.73271222573086</v>
@@ -18093,7 +18093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>669.6123480796814</v>
+        <v>372.832179069519</v>
       </c>
       <c r="I433" t="n">
         <v>-15.97430308573494</v>
@@ -18133,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>760.0423693656921</v>
+        <v>434.6624374389648</v>
       </c>
       <c r="I434" t="n">
         <v>-11.47032071694581</v>
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>1344.005346298218</v>
+        <v>556.5741062164307</v>
       </c>
       <c r="I435" t="n">
         <v>-7.98861066284645</v>
@@ -18217,7 +18217,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>587.9063606262207</v>
+        <v>329.4777870178223</v>
       </c>
       <c r="I436" t="n">
         <v>-65.05476353360359</v>
@@ -18257,7 +18257,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>603.2310605049133</v>
+        <v>343.0946707725525</v>
       </c>
       <c r="I437" t="n">
         <v>-37.97397184839551</v>
@@ -18297,7 +18297,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>618.7318563461304</v>
+        <v>348.7185835838318</v>
       </c>
       <c r="I438" t="n">
         <v>-25.2926654985048</v>
@@ -18337,7 +18337,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>638.0740404129028</v>
+        <v>354.0647029876709</v>
       </c>
       <c r="I439" t="n">
         <v>-19.52478176504972</v>
@@ -18377,7 +18377,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>682.4286580085754</v>
+        <v>367.9940700531006</v>
       </c>
       <c r="I440" t="n">
         <v>-14.97497113628763</v>
@@ -18417,7 +18417,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>775.6559252738953</v>
+        <v>418.772280216217</v>
       </c>
       <c r="I441" t="n">
         <v>-10.98981215791238</v>
@@ -18457,7 +18457,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>1332.37361907959</v>
+        <v>591.0103321075439</v>
       </c>
       <c r="I442" t="n">
         <v>-7.167956638966913</v>
@@ -18501,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>585.721492767334</v>
+        <v>338.9229774475098</v>
       </c>
       <c r="I443" t="n">
         <v>-36.17507147065015</v>
@@ -18541,7 +18541,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>606.7845106124878</v>
+        <v>344.447910785675</v>
       </c>
       <c r="I444" t="n">
         <v>-21.99341436444331</v>
@@ -18581,7 +18581,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>621.9694018363953</v>
+        <v>355.0273776054382</v>
       </c>
       <c r="I445" t="n">
         <v>-10.7100600997954</v>
@@ -18621,7 +18621,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>640.7490968704224</v>
+        <v>372.9343414306641</v>
       </c>
       <c r="I446" t="n">
         <v>-8.575140444880596</v>
@@ -18661,7 +18661,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>677.5646209716797</v>
+        <v>411.6228818893433</v>
       </c>
       <c r="I447" t="n">
         <v>-6.746309302885326</v>
@@ -18701,7 +18701,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>752.3198127746579</v>
+        <v>553.4233570098874</v>
       </c>
       <c r="I448" t="n">
         <v>-4.69815993726561</v>
@@ -18741,7 +18741,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>1101.317644119263</v>
+        <v>916.4977073669434</v>
       </c>
       <c r="I449" t="n">
         <v>-2.727180357512142</v>
